--- a/biology/Médecine/Philippe_Fermin/Philippe_Fermin.xlsx
+++ b/biology/Médecine/Philippe_Fermin/Philippe_Fermin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Fermin est né vers 1720 à Maastricht, devenu médecin, il se rendit en 1754 à Suriname, où il fit un séjour d'une dizaine d'années. Il consacra tous ses loisirs à l'étude de l'histoire naturelle de cette contrée[1],[2]. 
-À son retour en Pays-Bas, il est devenu membre du corps municipal de Maastricht, où il mourut vers 1790[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Fermin est né vers 1720 à Maastricht, devenu médecin, il se rendit en 1754 à Suriname, où il fit un séjour d'une dizaine d'années. Il consacra tous ses loisirs à l'étude de l'histoire naturelle de cette contrée,. 
+À son retour en Pays-Bas, il est devenu membre du corps municipal de Maastricht, où il mourut vers 1790,.
 </t>
         </is>
       </c>
@@ -512,15 +524,17 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Traité des maladies les plus fréquentes à Surinam, avec une dissertation sur le fameux crapaud , nommé pipa, Maestricht, 1764 et Amsterdam, 1765[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Traité des maladies les plus fréquentes à Surinam, avec une dissertation sur le fameux crapaud , nommé pipa, Maestricht, 1764 et Amsterdam, 1765.
 Histoire naturelle de la hollande équinoxiale ou de Surinam [lire en ligne], Amsterdam, 1765.
 Instruction importante au peuple sur l'économie animale, pour faire suite à l'Avis au peuple de Tissot, La Haye, 1767.
 Instruction sur les maladies chroniques pour servir de suite à l'Avis au peuple de Tissot, Yverdon, 1768.
 Description générale, historique, géographique et physique de la colonie de Surinam, en 1769.
-Dissertation sur la question s'il est permis d'avoir en sa possession des esclaves et de s'en servir comme tels, dans les colonies de l'Amérique [lire en ligne], Maestricht, 1770. C'est une apologie de l'esclavage[3].
-Tableau historique et politique de l'état ancien et actuel de la colonie de Surinam, et des causes de sa décadence, Maestricht, 1778[3].</t>
+Dissertation sur la question s'il est permis d'avoir en sa possession des esclaves et de s'en servir comme tels, dans les colonies de l'Amérique [lire en ligne], Maestricht, 1770. C'est une apologie de l'esclavage.
+Tableau historique et politique de l'état ancien et actuel de la colonie de Surinam, et des causes de sa décadence, Maestricht, 1778.</t>
         </is>
       </c>
     </row>
